--- a/kaiseki/around_50.xlsx
+++ b/kaiseki/around_50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{913F16E8-0D4D-45D0-9DF4-00CDF1D5C5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F47443CD-EE7E-45B2-827B-D54F4F797C5D}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{913F16E8-0D4D-45D0-9DF4-00CDF1D5C5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4D03BC1-6B71-475C-A3A5-8E785682629D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3345,7 +3345,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3642,8 +3642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V102"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19:R34"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8526,7 +8526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E978DC98-7C4C-45C8-B8C8-BAB914A45EA4}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DU1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P2" sqref="P2:EK23"/>
     </sheetView>
   </sheetViews>

--- a/kaiseki/around_50.xlsx
+++ b/kaiseki/around_50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{913F16E8-0D4D-45D0-9DF4-00CDF1D5C5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4D03BC1-6B71-475C-A3A5-8E785682629D}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{913F16E8-0D4D-45D0-9DF4-00CDF1D5C5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5330BF5D-AAE0-4F62-A244-229F006F53A9}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3630" yWindow="1230" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="103">
   <si>
     <t>imahashi</t>
   </si>
@@ -784,8 +784,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>11.942048405068032</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4703655010344896</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$21:$AB$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>11.942048405068032</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.4703655010344896</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -870,8 +906,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>7.0856486095540143</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.14550227796075</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.6304126197900715E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>11.434256595079303</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$22:$AB$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>7.0856486095540143</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.14550227796075</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.6304126197900715E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>11.434256595079303</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -959,8 +1037,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.890050601774429</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.072537206081703</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.1106555706530647</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>11.31076100664524</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$23:$AB$23</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.890050601774429</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>10.072537206081703</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>6.1106555706530647</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>11.31076100664524</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1048,8 +1168,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.9045997988079169</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.8679742485520165</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.7066365901230407</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.308488581260562</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$24:$AB$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>4.9045997988079169</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.8679742485520165</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.7066365901230407</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.308488581260562</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1179,6 +1341,7 @@
         <c:axId val="555677551"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1264,7 +1427,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1355,12 +1518,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1430,8 +1588,44 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>19.112465867067428</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>25.531566367985377</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$30:$AB$30</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="1">
+                    <c:v>19.112465867067428</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>25.531566367985377</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1516,8 +1710,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>14.26582270637989</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>18.228631007010687</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>31.508872740627847</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24.239594109156499</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$31:$AB$31</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>14.26582270637989</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>18.228631007010687</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>31.508872740627847</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>24.239594109156499</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1605,8 +1841,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>26.411115322000224</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>21.045284047068517</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>23.161478656160501</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>19.287164999633355</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$32:$AB$32</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>26.411115322000224</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>21.045284047068517</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>23.161478656160501</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>19.287164999633355</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1694,8 +1972,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>17.025323718532601</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.456841817887534</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19.595572175065172</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14.771536369082487</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$33:$AB$33</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>17.025323718532601</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.456841817887534</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>19.595572175065172</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>14.771536369082487</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1783,8 +2103,50 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>16.059295844157209</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.1241177086580816</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.722171213099184</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.215928908542892</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Y$34:$AB$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>16.059295844157209</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.1241177086580816</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>14.722171213099184</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>16.215928908542892</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
             <c:spPr>
               <a:noFill/>
               <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -2096,12 +2458,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -3214,16 +3571,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>319087</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3250,16 +3607,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>61912</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>471487</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3640,10 +3997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37:X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4397,7 +4754,7 @@
         <v>31.3321986693486</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -4444,7 +4801,7 @@
         <v>14.320388349514561</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
@@ -4497,7 +4854,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
@@ -4556,7 +4913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
@@ -4608,8 +4965,11 @@
       <c r="R20" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="X20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4673,8 +5033,23 @@
         <f>AVERAGE(B7,K7)</f>
         <v>28.72815179715332</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X21" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y21" s="12">
+        <f>_xlfn.STDEV.P($D$6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12">
+        <f>_xlfn.STDEV.P($B$7:$B$10,$D$7,$B$13,$E$9,$E$13,$K$8,$K$9,$K$16,$M$7)</f>
+        <v>11.942048405068032</v>
+      </c>
+      <c r="AB21" s="12">
+        <f>_xlfn.STDEV.P($B$7,$K$7)</f>
+        <v>2.4703655010344896</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
@@ -4742,8 +5117,27 @@
         <f>AVERAGE(B8:B9,B15:B16,E7:F9,F11,E13,E15:F16,H7,H9:H10,H14:H15,K8:K16,L15:L16,M13:M16,M7,M11,)</f>
         <v>33.11854664158809</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X22" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y22" s="12">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$D$4:$D$5,$I$6)</f>
+        <v>7.0856486095540143</v>
+      </c>
+      <c r="Z22" s="12">
+        <f>_xlfn.STDEV.P($B$11:$B$12,$B$15:$B$16,$D$9,$D$11,$D$13,$D$15,$E$8,$E$10:$E$11,$E$14:$E$15,$F$8:$F$10,$F$16,$H$7:$H$11,$H$13,$H$15:$H$16,$K$7,$K$10:$K$15,$L$16,$M$8,$M$10,$M$12,$M$14:$M$16,)</f>
+        <v>10.14550227796075</v>
+      </c>
+      <c r="AA22" s="12">
+        <f>_xlfn.STDEV.P($B$3,$D$3)</f>
+        <v>6.6304126197900715E-2</v>
+      </c>
+      <c r="AB22" s="12">
+        <f>_xlfn.STDEV.P($B$8:$B$9,$B$15:$B$16,$E$7:$F$9,$F$11,$E$13,$E$15:$F$16,$H$7,$H$9:$H$10,$H$14:$H$15,$K$8:$K$16,$L$15:$L$16,$M$13:$M$16,$M$7,$M$11,)</f>
+        <v>11.434256595079303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -4811,8 +5205,27 @@
         <f>AVERAGE(B10:B14,C7:C16,D12,D15,E10:E12,E14,F10,F12:F14,G15,H8,H11:H13,H16,I7:I16,J8,L13:L14,M8:M10,N10,N12,N14,O7:O16,)</f>
         <v>26.334652986598357</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X23" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y23" s="12">
+        <f>_xlfn.STDEV.P($B$2:$B$3,$D$3,$C$5:$C$6,$E$6,$I$4:$I$5,$K$5:$K$6,$L$6)</f>
+        <v>4.890050601774429</v>
+      </c>
+      <c r="Z23" s="12">
+        <f>_xlfn.STDEV.P($C$7:$C$16,$B$14,$D$8,$D$10,$D$12,$D$14,$D$16,$E$16,$E$12,$E$7,$F$7,$F$11:$F$15,$G$15,$H$12,$H$14,$I$7:$I$16,$L$9,$L$11:$L$15,$M$9,$M$11,$M$13,$N$7:$N$13,$O$7:$O$16,$N$15:$N$16)</f>
+        <v>10.072537206081703</v>
+      </c>
+      <c r="AA23" s="12">
+        <f>_xlfn.STDEV.P($B$4:$B$6,$C$5,$D$6,$F$4,$F$6,$I$3:$I$6,$K$5:$K$6,$M$5,$N$6)</f>
+        <v>6.1106555706530647</v>
+      </c>
+      <c r="AB23" s="12">
+        <f>_xlfn.STDEV.P($B$10:$B$14,$C$7:$C$16,$D$12,$D$15,$E$10:$E$12,$E$14,$F$10,$F$12:$F$14,$G$15,$H$8,$H$11:$H$13,$H$16,$I$7:$I$16,$J$8,$L$13:$L$14,$M$8:$M$10,$N$10,$N$12,$N$14,$O$7:$O$16,)</f>
+        <v>11.31076100664524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -4880,8 +5293,27 @@
         <f>AVERAGE(D7:D11,D13:D14,D16,G7:G14,G16,J7,J9:J16,L7:L12,M12,N7:N9,N11,N13,N15:N16,)</f>
         <v>23.437699816778313</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y24" s="12">
+        <f>_xlfn.STDEV.P($C$2:$C$4,$D$2,$E$2:$E$5,$F$2:$F$6,$G$2:$G$6,$H$2:$H$6,$I$2:$I$3,$J$2:$J$6,$K$2:$K$4,$L$2:$L$5,$M$2:$M$6,$N$2:$N$6,$O$2:$O$6)</f>
+        <v>4.9045997988079169</v>
+      </c>
+      <c r="Z24" s="12">
+        <f>_xlfn.STDEV.P($G$7:$G$14,$J$7:$J$16,$L$7:$L$8,$L$10,$N$14,)</f>
+        <v>8.8679742485520165</v>
+      </c>
+      <c r="AA24" s="12">
+        <f>_xlfn.STDEV.P($B$2:$O$2,$C$3:$C$4,$C$6,$D$4,$E$3:$E$6,$D$5,$F$3,$F$5,$G$3:$H$6,$J$3:$J$6,$K$3:$K$4,$L$3:$L$6,$M$3:$O$4,$N$5:$O$5,$O$6,$M$6,)</f>
+        <v>5.7066365901230407</v>
+      </c>
+      <c r="AB24" s="12">
+        <f>_xlfn.STDEV.P($D$7:$D$11,$D$13:$D$14,$D$16,$G$7:$G$14,$G$16,$J$7,$J$9:$J$16,$L$7:$L$12,$M$12,$N$7:$N$9,$N$11,$N$13,$N$15:$N$16,)</f>
+        <v>7.308488581260562</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
@@ -4928,7 +5360,7 @@
         <v>63.19818542670825</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
@@ -4975,7 +5407,7 @@
         <v>53.07504741262531</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
@@ -5022,7 +5454,7 @@
         <v>63.535079795242403</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
@@ -5072,7 +5504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
@@ -5131,7 +5563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
@@ -5195,8 +5627,23 @@
         <f>AVERAGE(B30,K30,)</f>
         <v>35.464502831581065</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X30" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z30" s="12">
+        <f>_xlfn.STDEV.P($B$30:$B$31,$I$30,$K$31,$M$22:$M$23,)</f>
+        <v>19.112465867067428</v>
+      </c>
+      <c r="AA30" s="12">
+        <f>_xlfn.STDEV.P($I$21)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="12">
+        <f>_xlfn.STDEV.P($B$30,$K$30,)</f>
+        <v>25.531566367985377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -5264,8 +5711,27 @@
         <f>AVERAGE(B28,B31,C30:E30,C31,H31:I31,I30,K29,K31,M24:M27,N30:O30,)</f>
         <v>46.996481648999115</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X31" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y31" s="12">
+        <f>_xlfn.STDEV.P($B$17,$B$21,$D$21)</f>
+        <v>14.26582270637989</v>
+      </c>
+      <c r="Z31" s="12">
+        <f>_xlfn.STDEV.P($B$26,$B$28:$B$29,$D$22:$D$24,$D$26,$D$28,$C$30:$D$31,$E$31,$I$26,$I$28,$I$31,$K$30,$M$30:$M$31,$M$24,$O$31,$M$25,$M$28,$M$26:$M$27,)</f>
+        <v>18.228631007010687</v>
+      </c>
+      <c r="AA31" s="12">
+        <f>_xlfn.STDEV.P($B$20,$D$21:$E$21,$K$21,)</f>
+        <v>31.508872740627847</v>
+      </c>
+      <c r="AB31" s="12">
+        <f>_xlfn.STDEV.P($B$28,$B$31,$C$30:$E$30,$C$31,$H$31:$I$31,$I$30,$K$29,$K$31,$M$24:$M$27,$N$30:$O$30,)</f>
+        <v>24.239594109156499</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Q32" t="s">
         <v>56</v>
       </c>
@@ -5288,8 +5754,27 @@
         <f>AVERAGE(B24:B25,B27,B29,C28:C29,D24:D26,D31:F31,F30,F26,H27,H29:H30,I25:I29,K22:K23,K27:K28,L24,L26:L28,L30:L31,M28:M31,N22,N25:N26,N28,N31:O31,)</f>
         <v>48.4996691409196</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X32" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y32" s="12">
+        <f>_xlfn.STDEV.P($B$19:$B$20,$D$20,$D$18,$E$21,$I$21,$K$21,)</f>
+        <v>26.411115322000224</v>
+      </c>
+      <c r="Z32" s="12">
+        <f>_xlfn.STDEV.P($B$22:$B$25,$C$22,$C$28:$C$29,$D$25,$D$27,$D$29,$H$22:$I$22,$I$24,$I$27,$N$28,$K$28:$L$28,$K$29,$M$29,$H$28,$I$29,$H$30:$H$31,$K$22:$K$23,$L$30:$L$31,$N$30:$N$31,$O$30,)</f>
+        <v>21.045284047068517</v>
+      </c>
+      <c r="AA32" s="12">
+        <f>_xlfn.STDEV.P($B$18:$B$19,$B$21,$D$17,$E$20,$F$21,$I$19:$I$20,$K$19:$K$20,)</f>
+        <v>23.161478656160501</v>
+      </c>
+      <c r="AB32" s="12">
+        <f>_xlfn.STDEV.P($B$24:$B$25,$B$27,$B$29,$C$28:$C$29,$D$24:$D$26,$D$31:$F$31,$F$30,$F$26,$H$27,$H$29:$H$30,$I$25:$I$29,$K$22:$K$23,$K$27:$K$28,$L$24,$L$26:$L$28,$L$30:$L$31,$M$28:$M$31,$N$22,$N$25:$N$26,$N$28,$N$31:$O$31,)</f>
+        <v>19.287164999633355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -5315,8 +5800,27 @@
         <f>AVERAGE(B22:B23,B26,C22:C27,D22,D27,D29,F22:F25,F27:F29,G22,G26:H26,G28:G31,H28,H22:H23,I22:I24,J31,K24:K26,L25,L29,L22:M23,N23:N24,O22:O25,N27:O27,O28:O29,N29,)</f>
         <v>53.902295450892638</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y33" s="12">
+        <f>_xlfn.STDEV.P($D$17,$B$18,$C$21,$D$19,$E$19:$E$20,$F$20:$F$21,$I$20,$N$17:$N$21,$L$20:$M$21,$O$21,)</f>
+        <v>17.025323718532601</v>
+      </c>
+      <c r="Z33" s="12">
+        <f>_xlfn.STDEV.P($B$27,$C$23:$C$27,$E$22,$E$26,$E$28,$E$30,$F$22:$F$30,$G$22:$G$24,$F$31,$G$26,$G$28,$G$30:$G$31,$H$23:$H$24,$H$27,$H$29,$I$23,$I$25,$K$24:$K$27,$L$22:$L$27,$L$29,$N$22:$N$27,$O$22:$O$29,$N$29)</f>
+        <v>13.456841817887534</v>
+      </c>
+      <c r="AA33" s="12">
+        <f>_xlfn.STDEV.P($C$21,$D$19:$D$20,$F$19:$F$20,$G$21:$H$21,$I$17:$J$17,$N$17,$L$19:$N$21,$O$20:$O$21,)</f>
+        <v>19.595572175065172</v>
+      </c>
+      <c r="AB33" s="12">
+        <f>_xlfn.STDEV.P($B$22:$B$23,$B$26,$C$22:$C$27,$D$22,$D$27,$D$29,$F$22:$F$25,$F$27:$F$29,$G$22,$G$26:$H$26,$G$28:$G$31,$H$28,$H$22:$H$23,$I$22:$I$24,$J$31,$K$24:$K$26,$L$25,$L$29,$L$22:$M$23,$N$23:$N$24,$O$22:$O$25,$N$27:$O$27,$O$28:$O$29,$N$29,)</f>
+        <v>14.771536369082487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5381,8 +5885,27 @@
         <f>AVERAGE(D23,D28,E22:E29,G23:G25,G27,H24:H25,J22:J30,O26,)</f>
         <v>60.36667331737268</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="X34" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y34" s="12">
+        <f>_xlfn.STDEV.P($C$17:$C$20,$E$17:$E$18,$F$17:$F$19,$G$17:$H$21,$I$17:$I$19,$J$17:$J$21,$K$17:$K$20,$L$17:$M$19,$O$17:$O$20,)</f>
+        <v>16.059295844157209</v>
+      </c>
+      <c r="Z34" s="12">
+        <f>_xlfn.STDEV.P($E$23:$E$25,$E$27,$E$29,$G$25,$G$27,$G$29,$H$25:$H$26,$J$22:$J$31)</f>
+        <v>9.1241177086580816</v>
+      </c>
+      <c r="AA34" s="12">
+        <f>_xlfn.STDEV.P($B$17:$C$17,$C$18:$C$20,$D$18:$H$18,$E$17:$H$17,$E$19,$G$19:$H$20,$I$18,$J$18:$J$21,$K$17:$M$18,$N$18,$O$17:$O$19,)</f>
+        <v>14.722171213099184</v>
+      </c>
+      <c r="AB34" s="12">
+        <f>_xlfn.STDEV.P($D$23,$D$28,$E$22:$E$29,$G$23:$G$25,$G$27,$H$24:$H$25,$J$22:$J$30,$O$26,)</f>
+        <v>16.215928908542892</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -5429,7 +5952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -5476,7 +5999,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -5523,7 +6046,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -5570,7 +6093,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -5617,7 +6140,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -5664,7 +6187,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -5711,7 +6234,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -5758,7 +6281,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -5805,7 +6328,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -5852,7 +6375,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -5899,7 +6422,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -5946,7 +6469,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -5993,7 +6516,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
@@ -8526,8 +9049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E978DC98-7C4C-45C8-B8C8-BAB914A45EA4}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:EK23"/>
+    <sheetView topLeftCell="P15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43:Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12269,12 +12792,12 @@
         <v>0.50354679743993813</v>
       </c>
       <c r="S44">
-        <f>T39*SQRT(138)/SQRT(T39^2)</f>
-        <v>11.74734012447073</v>
+        <f>S39*SQRT(138)/SQRT(1-S39^2)</f>
+        <v>-4.106348614414209</v>
       </c>
       <c r="T44">
         <f>TDIST(ABS(S44),138,2)</f>
-        <v>1.6129081532651016E-22</v>
+        <v>6.8499744608681621E-5</v>
       </c>
       <c r="U44">
         <f>T39*SQRT(68)/SQRT(1-T39^2)</f>
@@ -12285,12 +12808,12 @@
         <v>0.25487680777756044</v>
       </c>
       <c r="W44">
-        <f>U39*SQRT(138)/SQRT(U39^2)</f>
-        <v>-11.747340124470728</v>
+        <f>U39*SQRT(138)/SQRT(1-U39^2)</f>
+        <v>-4.3138537876817802</v>
       </c>
       <c r="X44">
         <f>TDIST(ABS(W44),138,2)</f>
-        <v>1.6129081532651247E-22</v>
+        <v>3.0368299830166223E-5</v>
       </c>
       <c r="Z44" t="s">
         <v>97</v>

--- a/kaiseki/around_50.xlsx
+++ b/kaiseki/around_50.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/kaiseki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{913F16E8-0D4D-45D0-9DF4-00CDF1D5C5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5330BF5D-AAE0-4F62-A244-229F006F53A9}"/>
+  <xr:revisionPtr revIDLastSave="197" documentId="13_ncr:1_{913F16E8-0D4D-45D0-9DF4-00CDF1D5C5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB19663E-A590-46A3-A472-862BB52F3DCB}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="1230" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4875" yWindow="3690" windowWidth="19740" windowHeight="11220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="111">
   <si>
     <t>imahashi</t>
   </si>
@@ -452,6 +449,45 @@
   <si>
     <t>t 境界値 両側</t>
   </si>
+  <si>
+    <t>通常：事前</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゼン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通常：事後</t>
+    <rPh sb="0" eb="2">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SSE:レベル2</t>
+  </si>
+  <si>
+    <t>SSE:レベル3</t>
+  </si>
+  <si>
+    <t>SSE:レベル4</t>
+  </si>
+  <si>
+    <t>SSE:レベル5</t>
+  </si>
+  <si>
+    <t>t-検定: 分散が等しくないと仮定した２標本による検定</t>
+  </si>
 </sst>
 </file>
 
@@ -625,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -647,6 +683,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -763,11 +804,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$R$21</c:f>
+              <c:f>Sheet1!$R$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -842,13 +883,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -858,19 +899,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$21:$V$21</c:f>
+              <c:f>Sheet1!$S$20:$V$20</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>13.06818181818182</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>32.228889221821056</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>28.72815179715332</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -885,11 +917,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$R$22</c:f>
+              <c:f>Sheet1!$R$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -970,13 +1002,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -986,21 +1018,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$22:$V$22</c:f>
+              <c:f>Sheet1!$S$21:$V$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20.692524925195325</c:v>
+                  <c:v>13.06818181818182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32.234358600147928</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18.541943296482508</c:v>
+                  <c:v>32.228889221821056</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33.11854664158809</c:v>
+                  <c:v>28.72815179715332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1016,11 +1045,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$R$23</c:f>
+              <c:f>Sheet1!$R$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1101,13 +1130,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1117,21 +1146,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$23:$V$23</c:f>
+              <c:f>Sheet1!$S$22:$V$22</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>21.379298023785704</c:v>
+                  <c:v>20.692524925195325</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.748735767126789</c:v>
+                  <c:v>32.234358600147928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.21690817092686</c:v>
+                  <c:v>18.541943296482508</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.334652986598357</c:v>
+                  <c:v>33.11854664158809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1147,11 +1176,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$R$24</c:f>
+              <c:f>Sheet1!$R$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1232,13 +1261,84 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>回転：事後</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$23:$V$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21.379298023785704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.748735767126789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.21690817092686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.334652986598357</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1F9D-49E7-8C41-E5D207111937}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SSE:レベル5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$S$19:$V$19</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>通常：事前</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>回転：事前</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1269,7 +1369,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1F9D-49E7-8C41-E5D207111937}"/>
+              <c16:uniqueId val="{00000000-6C63-45A8-B913-EB90AC28264B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1394,8 +1494,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="3.6111111111111108E-2"/>
-              <c:y val="3.2407407407407406E-2"/>
+              <c:x val="8.611111111111111E-2"/>
+              <c:y val="2.7777777777777776E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1567,11 +1667,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$R$30</c:f>
+              <c:f>Sheet1!$R$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：0-20</c:v>
+                  <c:v>SSE:レベル1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1646,13 +1746,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1689,11 +1789,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$R$31</c:f>
+              <c:f>Sheet1!$R$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：21-40</c:v>
+                  <c:v>SSE:レベル2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1774,13 +1874,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1820,11 +1920,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$R$32</c:f>
+              <c:f>Sheet1!$R$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：41-60</c:v>
+                  <c:v>SSE:レベル3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1905,13 +2005,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -1951,11 +2051,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$R$33</c:f>
+              <c:f>Sheet1!$R$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：61-80</c:v>
+                  <c:v>SSE:レベル4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2036,13 +2136,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2082,11 +2182,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Sheet1!$R$34</c:f>
+              <c:f>Sheet1!$R$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>se：81-100</c:v>
+                  <c:v>SSE:レベル5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2167,13 +2267,13 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>普通：事前</c:v>
+                  <c:v>通常：事前</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>回転：事前</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>普通：事後</c:v>
+                  <c:v>通常：事後</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>回転：事後</c:v>
@@ -2334,7 +2434,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.5555555555555552E-2"/>
+              <c:x val="6.6666666666666666E-2"/>
               <c:y val="2.3148148148148147E-2"/>
             </c:manualLayout>
           </c:layout>
@@ -3571,16 +3671,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3607,16 +3707,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3642,70 +3742,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Sheet1 (2)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="21">
-          <cell r="R21" t="str">
-            <v>se：21-40</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="R22" t="str">
-            <v>se：41-60</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="R23" t="str">
-            <v>se：61-80</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="R24" t="str">
-            <v>se：81-100</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="R30" t="str">
-            <v>se：0-20</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="R31" t="str">
-            <v>se：21-40</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="R32" t="str">
-            <v>se：41-60</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="R33" t="str">
-            <v>se：61-80</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="R34" t="str">
-            <v>se：81-100</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3999,8 +4035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37:X37"/>
+    <sheetView topLeftCell="P5" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4901,13 +4937,13 @@
         <v>38.638638638638639</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="T19" t="s">
         <v>51</v>
       </c>
       <c r="U19" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="V19" t="s">
         <v>53</v>
@@ -4963,7 +4999,7 @@
         <v>54</v>
       </c>
       <c r="R20" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="X20" t="s">
         <v>60</v>
@@ -5019,7 +5055,7 @@
         <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="S21" s="12">
         <f>AVERAGE(D6)</f>
@@ -5099,7 +5135,7 @@
         <v>56</v>
       </c>
       <c r="R22" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="S22" s="12">
         <f>AVERAGE(B4:B6,D4:D5,I6)</f>
@@ -5187,7 +5223,7 @@
         <v>57</v>
       </c>
       <c r="R23" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="S23" s="12">
         <f>AVERAGE(B2:B3,D3,C5:C6,E6,I4:I5,K5:K6,L6)</f>
@@ -5275,7 +5311,7 @@
         <v>58</v>
       </c>
       <c r="R24" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="S24" s="12">
         <f>AVERAGE(C2:C4,D2,E2:E5,F2:F6,G2:G6,H2:H6,I2:I3,J2:J6,K2:K4,L2:L5,M2:M6,N2:N6,O2:O6)</f>
@@ -5551,13 +5587,13 @@
         <v>39.717425431711142</v>
       </c>
       <c r="S29" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="T29" t="s">
         <v>51</v>
       </c>
       <c r="U29" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="V29" t="s">
         <v>53</v>
@@ -5613,7 +5649,7 @@
         <v>54</v>
       </c>
       <c r="R30" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="T30" s="12">
         <f>AVERAGE(B30:B31,I30,K31,M22:M23,)</f>
@@ -5693,7 +5729,7 @@
         <v>55</v>
       </c>
       <c r="R31" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="S31" s="12">
         <f>AVERAGE(B17,B21,D21)</f>
@@ -5736,7 +5772,7 @@
         <v>56</v>
       </c>
       <c r="R32" t="s">
-        <v>62</v>
+        <v>107</v>
       </c>
       <c r="S32" s="12">
         <f>AVERAGE(B19:B20,D20,D18,E21,I21,K21,)</f>
@@ -5782,7 +5818,7 @@
         <v>57</v>
       </c>
       <c r="R33" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="S33" s="12">
         <f>AVERAGE(D17,B18,C21,D19,E19:E20,F20:F21,I20,N17:N21,L20:M21,O21,)</f>
@@ -5867,7 +5903,7 @@
         <v>58</v>
       </c>
       <c r="R34" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="S34" s="12">
         <f>AVERAGE(C17:C20,E17:E18,F17:F19,G17:H21,I17:I19,J17:J21,K17:K20,L17:M19,O17:O20,)</f>
@@ -9049,8 +9085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E978DC98-7C4C-45C8-B8C8-BAB914A45EA4}">
   <dimension ref="A1:EK102"/>
   <sheetViews>
-    <sheetView topLeftCell="P15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43:Y47"/>
+    <sheetView tabSelected="1" topLeftCell="X23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AH35" sqref="AH35:AJ47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12021,7 +12057,7 @@
         <v>9.3204368762056771E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>44</v>
       </c>
@@ -12038,7 +12074,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>0</v>
       </c>
@@ -12102,7 +12138,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>14</v>
       </c>
@@ -12170,8 +12206,14 @@
       <c r="AD35" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH35" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>15</v>
       </c>
@@ -12227,7 +12269,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>16</v>
       </c>
@@ -12276,8 +12318,22 @@
       <c r="Q37" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH37" s="17"/>
+      <c r="AI37" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ37" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL37" s="17"/>
+      <c r="AM37" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AN37" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>17</v>
       </c>
@@ -12349,8 +12405,26 @@
       <c r="AF38" s="14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH38" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI38" s="15">
+        <v>21.364999562636847</v>
+      </c>
+      <c r="AJ38" s="15">
+        <v>27.974565337761813</v>
+      </c>
+      <c r="AL38" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM38" s="15">
+        <v>48.240638867470139</v>
+      </c>
+      <c r="AN38" s="15">
+        <v>54.131714893953848</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -12433,8 +12507,26 @@
       <c r="AF39">
         <v>54.131714893953848</v>
       </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH39" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI39" s="15">
+        <v>27.384713985248695</v>
+      </c>
+      <c r="AJ39" s="15">
+        <v>106.46319267729116</v>
+      </c>
+      <c r="AL39" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM39" s="15">
+        <v>305.46291970255857</v>
+      </c>
+      <c r="AN39" s="15">
+        <v>267.17218706787565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>19</v>
       </c>
@@ -12517,8 +12609,26 @@
       <c r="AF40">
         <v>267.17218706787565</v>
       </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI40" s="15">
+        <v>70</v>
+      </c>
+      <c r="AJ40" s="15">
+        <v>140</v>
+      </c>
+      <c r="AL40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM40" s="15">
+        <v>70</v>
+      </c>
+      <c r="AN40" s="15">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -12582,8 +12692,22 @@
       <c r="AF41">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH41" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AI41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="15"/>
+      <c r="AL41" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AM41" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="15"/>
+    </row>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -12653,8 +12777,22 @@
       <c r="AE42">
         <v>279.87440125918874</v>
       </c>
-    </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH42" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AI42" s="15">
+        <v>208</v>
+      </c>
+      <c r="AJ42" s="15"/>
+      <c r="AL42" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM42" s="15">
+        <v>130</v>
+      </c>
+      <c r="AN42" s="15"/>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
@@ -12736,8 +12874,22 @@
       <c r="AE43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH43" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI43" s="15">
+        <v>-6.1590040570692546</v>
+      </c>
+      <c r="AJ43" s="15"/>
+      <c r="AL43" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AM43" s="15">
+        <v>-2.3522698647269595</v>
+      </c>
+      <c r="AN43" s="15"/>
+    </row>
+    <row r="44" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>23</v>
       </c>
@@ -12827,8 +12979,22 @@
       <c r="AE44">
         <v>208</v>
       </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH44" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI44" s="15">
+        <v>1.8627134214078399E-9</v>
+      </c>
+      <c r="AJ44" s="15"/>
+      <c r="AL44" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM44" s="15">
+        <v>1.0080328028933626E-2</v>
+      </c>
+      <c r="AN44" s="15"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
@@ -12898,8 +13064,22 @@
       <c r="AE45">
         <v>-2.405561304948268</v>
       </c>
-    </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH45" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI45" s="15">
+        <v>1.6522123760661407</v>
+      </c>
+      <c r="AJ45" s="15"/>
+      <c r="AL45" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM45" s="15">
+        <v>1.6566594127194858</v>
+      </c>
+      <c r="AN45" s="15"/>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>25</v>
       </c>
@@ -12981,8 +13161,22 @@
       <c r="AE46">
         <v>8.51141004108074E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH46" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI46" s="15">
+        <v>3.7254268428156798E-9</v>
+      </c>
+      <c r="AJ46" s="15"/>
+      <c r="AL46" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM46" s="15">
+        <v>2.0160656057867252E-2</v>
+      </c>
+      <c r="AN46" s="15"/>
+    </row>
+    <row r="47" spans="1:40" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>26</v>
       </c>
@@ -13072,8 +13266,22 @@
       <c r="AE47">
         <v>1.6522123760661407</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.15">
+      <c r="AH47" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI47" s="16">
+        <v>1.9714346585202402</v>
+      </c>
+      <c r="AJ47" s="16"/>
+      <c r="AL47" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM47" s="16">
+        <v>1.9783804054470222</v>
+      </c>
+      <c r="AN47" s="16"/>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>27</v>
       </c>
